--- a/AutoTestNg/target/classes/AutoTest/flow/test_al.xlsx
+++ b/AutoTestNg/target/classes/AutoTest/flow/test_al.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>param1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,179 +54,206 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">application/x-www-form-urlencoded </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content-Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header-key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header-value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie-key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie-value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">application/x-www-form-urlencoded </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${a1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${a2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${a3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${a4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>TestId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as大厦大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>23423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23424</t>
+  </si>
+  <si>
+    <t>1a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DbInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">application/x-www-form-urlencoded </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content-Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案例相关信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header-key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header-value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cookie-key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cookie-value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>before</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>after</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">application/x-www-form-urlencoded </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${a1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${a2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${a3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${a4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>TestId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>as大厦大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23423</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>343</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>23423</t>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,18 +596,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -617,18 +644,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -654,18 +681,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -676,10 +703,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -689,44 +716,80 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -765,13 +828,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -780,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -791,42 +854,42 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -862,16 +925,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -896,22 +959,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/AutoTestNg/target/classes/AutoTest/flow/test_al.xlsx
+++ b/AutoTestNg/target/classes/AutoTest/flow/test_al.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="案例信息" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>param1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,14 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sda</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,9 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>test2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,6 +243,30 @@
   </si>
   <si>
     <t>2a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as大厦1大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from Sheet(name="案例数据",value="D,2")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from Sheet(name="案例数据",value="E,2")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from Sheet(name="案例数据",value="C,2")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from Java(name="com.xxx.xxx("123","456")")}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +284,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -297,11 +319,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -705,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -716,13 +739,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -730,63 +753,63 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -815,15 +838,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="6" width="9" style="2"/>
+    <col min="3" max="3" width="42.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -857,19 +883,19 @@
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -877,19 +903,19 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +930,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/AutoTestNg/target/classes/AutoTest/flow/test_al.xlsx
+++ b/AutoTestNg/target/classes/AutoTest/flow/test_al.xlsx
@@ -246,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哈哈哈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>as大厦1大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,6 +263,10 @@
   </si>
   <si>
     <t>{from Java(name="com.xxx.xxx("123","456")")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123213</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -886,13 +886,13 @@
         <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>
@@ -906,16 +906,16 @@
         <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
